--- a/data/VEDL.xlsx
+++ b/data/VEDL.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H439"/>
+  <dimension ref="A1:H442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11821,6 +11821,84 @@
         <v>16032.81</v>
       </c>
     </row>
+    <row r="440" spans="1:8">
+      <c r="A440" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B440">
+        <v>253.6</v>
+      </c>
+      <c r="C440">
+        <v>254.8</v>
+      </c>
+      <c r="D440">
+        <v>246.75</v>
+      </c>
+      <c r="E440">
+        <v>248.9</v>
+      </c>
+      <c r="F440">
+        <v>249.3</v>
+      </c>
+      <c r="G440">
+        <v>7214279</v>
+      </c>
+      <c r="H440">
+        <v>17984</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="A441" s="2">
+        <v>42776</v>
+      </c>
+      <c r="B441">
+        <v>250.75</v>
+      </c>
+      <c r="C441">
+        <v>252.25</v>
+      </c>
+      <c r="D441">
+        <v>245.35</v>
+      </c>
+      <c r="E441">
+        <v>247.5</v>
+      </c>
+      <c r="F441">
+        <v>248</v>
+      </c>
+      <c r="G441">
+        <v>9070897</v>
+      </c>
+      <c r="H441">
+        <v>22529.86</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="A442" s="2">
+        <v>42779</v>
+      </c>
+      <c r="B442">
+        <v>252.05</v>
+      </c>
+      <c r="C442">
+        <v>258.45</v>
+      </c>
+      <c r="D442">
+        <v>251.55</v>
+      </c>
+      <c r="E442">
+        <v>255.85</v>
+      </c>
+      <c r="F442">
+        <v>256.15</v>
+      </c>
+      <c r="G442">
+        <v>13320299</v>
+      </c>
+      <c r="H442">
+        <v>34112.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
